--- a/selected cases tracker.xlsx
+++ b/selected cases tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Documents\Studium\Bachelor's Thesis\ucf-thesis-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33696077-E1D2-4DEC-8EB8-35E405A6DE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B8BCC4-5FB1-4C7E-B4EB-B4B26F09F179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Selected cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1508,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,7 +1520,9 @@
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
